--- a/biology/Médecine/Coagulase/Coagulase.xlsx
+++ b/biology/Médecine/Coagulase/Coagulase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>La coagulase ou staphylocoagulase est une enzyme capable de faire coaguler le plasma sanguin. La mise en évidence d'une activité coagulase libre chez une souche de Staphylococcus est un des critères d'identification de Staphylococcus aureus en médecine humaine. D'autres germes, moins courant en pathologie humaine, peuvent avoir une réaction positive, notamment Staphylococcus intermedius et Staphylococcus hyicus.
 On distingue deux types de coagulase :
@@ -513,7 +525,9 @@
           <t>Principe</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le principe de ce test est simple. On met en contact du plasma oxalaté, incapable de coaguler seul, avec un peu de bouillon Cœur-Cervelle où a été cultivé le germe étudié. Si le fibrinogène, soluble dans le plasma, se transforme en fibrine solide, un caillot se formera au fond du tube.
 On peut également réaliser ce test par une agglutination sur lame. Sur une lame propre et sèche, on met en contact une goutte de Plasma sanguin oxalaté avec une goutte de bouillon ensemencé par le germe étudié (ou 1 colonie). Si le germe possède le récepteur au fibrinogène, il y aura une agglutination visible à l'œil nu.
@@ -545,7 +559,9 @@
           <t>Technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans un tube à hémolyse stérile :
 verser 0,5 ml de bouillon cœur-cervelle ;
@@ -581,7 +597,9 @@
           <t>Résultats</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Si le plasma coagule en moins de 24h, le germe possède une coagulase. La seule mise en évidence d'une activité coagulase libre chez une souche de staphylocoque ne suffit cependant pas à affirmer qu'il s'agit d'un staphylocoque doré : un second test est nécessaire (activité DNAse libre ou agglutination au latex spécifique) afin d'éliminer les faux positifs.
 Dans de rares cas, un staphylocoque doré peut avoir perdu sa coagulase.
